--- a/lab_sampling_data.xlsx
+++ b/lab_sampling_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ike77\Documents\GitHub\Walleye-Bioenergetics-Coloraod-and-Green-river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22D6A8A-A8D0-46DE-A7C2-35EB53831FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20B5D97-A789-42F7-B64E-B42481080823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8648975F-FF27-44E6-B519-64CF9D530DC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8648975F-FF27-44E6-B519-64CF9D530DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,9 +284,11 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,434 +605,433 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD7FCF2-D319-457E-87AF-70987575CB1E}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>383</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>597</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>1.17</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>6.94</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>12.05</v>
       </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>445</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>993</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>2.79</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>10.15</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>9.4600000000000009</v>
       </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>454</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>936</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>6.49</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>11.87</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>18.37</v>
       </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>487</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1273</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>5.7</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>16.89</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>17.96</v>
       </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>425</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>766</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>4.51</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>8.9600000000000009</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>25.36</v>
       </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>454</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>852</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>1.68</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>8.14</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>5.85</v>
       </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>415</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>882</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>4.42</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>12.05</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>12.61</v>
       </c>
-      <c r="J8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>487</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>1144</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>6</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>1.71</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>6.5</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>10.3</v>
       </c>
-      <c r="J9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>487</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>1289</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>2.4</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>11.28</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>17.2</v>
       </c>
-      <c r="J10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>431</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>721</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>4.01</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>6.04</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>9.75</v>
       </c>
-      <c r="J11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>444</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>798</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>18.16</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>7.75</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>13.09</v>
       </c>
-      <c r="J12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1070,520 +1071,525 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>690</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>3825</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>4</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>839.9</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>26.36</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>25.42</v>
       </c>
-      <c r="J14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>472</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>1033</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>5.79</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>26.36</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>14.88</v>
       </c>
-      <c r="J15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="J15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>554</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>1935</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>5</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>11.94</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>11.1</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>24.64</v>
       </c>
-      <c r="J16" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="J16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>471</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>1111</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>7.13</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>13.08</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>17.03</v>
       </c>
-      <c r="J17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>435</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>813</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>5</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>2.31</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>9.91</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>8.6</v>
       </c>
-      <c r="J18" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>423</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>904</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>6</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>1.48</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>9.09</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>10.4</v>
       </c>
-      <c r="J19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="J19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>428</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>790</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>5</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>1.81</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>12.35</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J20" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>579</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>1959</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>5</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>11.2</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>4.8600000000000003</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>16.8</v>
       </c>
-      <c r="J21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="J21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>407</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>678</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>2</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>0.85</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>14.93</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>9.09</v>
       </c>
-      <c r="J22" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="J22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>440</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>980</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>5</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>5.65</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>5.88</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>8.8800000000000008</v>
       </c>
-      <c r="J23" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="J23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>511</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>1557</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>5</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>10.57</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>13.23</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>21.89</v>
       </c>
-      <c r="J24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="J24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>469</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>1150</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>5</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>6.16</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>29.35</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>12.09</v>
       </c>
-      <c r="J25" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="J25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>443</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>887</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>5</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>5.69</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>15.4</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>12.52</v>
       </c>
-      <c r="J26" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="J26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>422</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>718</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>5</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>1.43</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>9.52</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>11.98</v>
       </c>
-      <c r="J27" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="J27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
         <f>AVERAGE(C2:C27)</f>
         <v>473.76923076923077</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <f>AVERAGE(D2:D27)</f>
         <v>1217.8461538461538</v>
       </c>
-      <c r="F28">
-        <f t="shared" ref="E28:J28" si="0">AVERAGE(F2:F27)</f>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <f>AVERAGE(F2:F27)</f>
         <v>3.9230769230769229</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
+      <c r="G28" s="1">
+        <f>AVERAGE(G2:G27)</f>
         <v>38.363076923076918</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
+      <c r="H28" s="1">
+        <f>AVERAGE(H2:H27)</f>
         <v>13.161153846153846</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
+      <c r="I28" s="1">
+        <f>AVERAGE(I2:I27)</f>
         <v>14.463846153846154</v>
       </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
